--- a/biology/Botanique/Catoblastus/Catoblastus.xlsx
+++ b/biology/Botanique/Catoblastus/Catoblastus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Catoblastus est un genre de plantes de la famille des Arecaceae (les palmiers) que l'on trouve dans les régions tropicales de l'Amérique. Il est très proche de Wettinia. Il contient les espèces suivantes :
 Ce genre est un synonyme du genre Wettinia.
@@ -520,7 +532,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille : Arecaceae
 Sous-famille : Arecoideae
